--- a/excel_template/excel模板.xlsx
+++ b/excel_template/excel模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F436CF67-FCAB-4237-ACC0-E638456D4D58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE116764-231C-4D42-8BE2-41A808B7AB7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dota2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
   <si>
     <t>标题</t>
   </si>
@@ -38,13 +38,496 @@
   <si>
     <t>爬虫结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGD公告：维多利亚和Xm回归CDEC战队</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207918.html</t>
+  </si>
+  <si>
+    <t>16分钟前</t>
+  </si>
+  <si>
+    <t>TeamAster分崩离析：留给茶队的时间还多吗</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207915.html</t>
+  </si>
+  <si>
+    <t>18分钟前</t>
+  </si>
+  <si>
+    <t>迪士尼Major明日开战 首轮LGD对战RNG</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207877.html</t>
+  </si>
+  <si>
+    <t>2小时前</t>
+  </si>
+  <si>
+    <t>MDL Major中国区预选即将开战！Newbee再展冠军基因</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207876.html</t>
+  </si>
+  <si>
+    <t>Xxs回应网友质疑：我没演，别脑补我们队内小团体</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207692.html</t>
+  </si>
+  <si>
+    <t>20小时前</t>
+  </si>
+  <si>
+    <t>冠军的特权，VG成首支获直邀参加ESL One伯明翰站的战队</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207690.html</t>
+  </si>
+  <si>
+    <t>Sylar宣布休息 B神透露二冰来Aster试训</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207614.html</t>
+  </si>
+  <si>
+    <t>1天前</t>
+  </si>
+  <si>
+    <t>B神：输了海选赛Aster老板在群里发飙了</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207613.html</t>
+  </si>
+  <si>
+    <t>[四周年福利] 玩加4岁啦，感谢加友们的陪伴</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207243.html</t>
+  </si>
+  <si>
+    <t>Alliance采访：今年前十 明年冲冠！</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207446.html</t>
+  </si>
+  <si>
+    <t>LGD公告：Yao回归LGD与357一起执教</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207445.html</t>
+  </si>
+  <si>
+    <t>上一秒敌人下一秒队友，EE加入Team Team参加ESL One预选</t>
+  </si>
+  <si>
+    <t>https://www.wanplus.com/article/207326.html</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》3月4日商城 映像与绝尘铁骑上架</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59454.html</t>
+  </si>
+  <si>
+    <t>2019-03-04</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》8赛季载入画面曝光 海盗与忍者</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59407.html</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>堡垒之夜第8赛季皮肤曝光 沙雕皮肤香蕉人</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59405.html</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》波兰极限大师赛即将开启 WE战队国锄出征</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59370.html</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》空降行动新道具滑板 即将到来</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59217.html</t>
+  </si>
+  <si>
+    <t>2019-02-19</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》2月19日商城 彩虹独角伞与公主上架</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59207.html</t>
+  </si>
+  <si>
+    <t>尴尬 一起诉《堡垒之夜》的舞蹈不受版权保护</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59189.html</t>
+  </si>
+  <si>
+    <t>国外体育老师和学生相约玩《堡垒之夜》 遭学校解雇</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59076.html</t>
+  </si>
+  <si>
+    <t>2019-02-14</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》2月13日商城 瓦尔基里与暗影兜帽皮肤上架</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59070.html</t>
+  </si>
+  <si>
+    <t>2019-02-13</t>
+  </si>
+  <si>
+    <t>没有错</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc59060.html</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》2月3日商城 吟游战士与橄榄球员套装上架</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc58947.html</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>在整一次 为棉花糖《堡垒之夜》音乐会做好准备</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc58943.html</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》第七赛季第九周挑战任务曝光 第九周任务前瞻</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc58906.html</t>
+  </si>
+  <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》v7.30新皮肤曝光 “堡垒”是你吗</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc58883.html</t>
+  </si>
+  <si>
+    <t>2019-01-30</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》电竞两开花 澳洲公开赛与平台杯圆满落幕</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc58882.html</t>
+  </si>
+  <si>
+    <t>《堡垒之夜》v7.30更新一览 全新冷冻手雷上线</t>
+  </si>
+  <si>
+    <t>http://pc.07073.com/arc58881.html</t>
+  </si>
+  <si>
+    <t>网曝《Apex英雄》本赛季还有新角色 不止辛烷一个</t>
+  </si>
+  <si>
+    <t>https://www.gamersky.com/news/201903/1166423.shtml</t>
+  </si>
+  <si>
+    <t>2019-03-24</t>
+  </si>
+  <si>
+    <t>2月美国PC玩家跟踪报告：49%网游玩家流向《APEX》</t>
+  </si>
+  <si>
+    <t>https://www.gamersky.com/news/201903/1166060.shtml</t>
+  </si>
+  <si>
+    <t>2019-03-22</t>
+  </si>
+  <si>
+    <t>《Apex》首月创免费游戏历史 收入预计达9200万美元</t>
+  </si>
+  <si>
+    <t>https://www.gamersky.com/news/201903/1165793.shtml</t>
+  </si>
+  <si>
+    <t>《Apex英雄》新英雄辛烷彩蛋 致敬现实玩家骚操作</t>
+  </si>
+  <si>
+    <t>https://www.gamersky.com/news/201903/1165527.shtml</t>
+  </si>
+  <si>
+    <t>2019-03-21</t>
+  </si>
+  <si>
+    <t>《沙赞》主演开黑《Apex英雄》 大小沙赞同框欢乐多</t>
+  </si>
+  <si>
+    <t>https://www.gamersky.com/news/201903/1165211.shtml</t>
+  </si>
+  <si>
+    <t>2019-03-20</t>
+  </si>
+  <si>
+    <t>《Apex英雄》已封禁50万作弊者 举报功能正式上线</t>
+  </si>
+  <si>
+    <t>https://www.gamersky.com/news/201903/1164785.shtml</t>
+  </si>
+  <si>
+    <t>《Apex英雄》赛季1正式公布 新英雄辛烷明日上线</t>
+  </si>
+  <si>
+    <t>https://www.gamersky.com/news/201903/1164332.shtml</t>
+  </si>
+  <si>
+    <t>2019-03-19</t>
+  </si>
+  <si>
+    <t>csboy解说：Blast pro Faze对阵Ence</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347837666327.html</t>
+  </si>
+  <si>
+    <t>2019-03-29</t>
+  </si>
+  <si>
+    <t>更新日志：殒命大厦顶替Cache加入现役地图</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347837593834.html</t>
+  </si>
+  <si>
+    <t>破而后立 HellRaisers试训西班牙选手loWel</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347837556075.html</t>
+  </si>
+  <si>
+    <t>OpTic宣布cajunb离队并招入MSL和niko</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347837488509.html</t>
+  </si>
+  <si>
+    <t>冠军指挥Rita领军 上海Vital Spark全新亮相</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347837425438.html</t>
+  </si>
+  <si>
+    <t>签证问题 GuardiaN缺席SLi S7首日比赛</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347837238846.html</t>
+  </si>
+  <si>
+    <t>csboy-mo xixi alex解说Blast:Liquid vs FaZe</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347753899642.html</t>
+  </si>
+  <si>
+    <t>2019-03-28</t>
+  </si>
+  <si>
+    <t>原BOOT.ds选手ImpressioN正式加入BTRG</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347753849718.html</t>
+  </si>
+  <si>
+    <t>SLI前专访Panda战队：要不忘初心 对得起自己</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347753786227.html</t>
+  </si>
+  <si>
+    <t>Swole Patrol退出IEM悉尼 eUnited顶替参赛</t>
+  </si>
+  <si>
+    <t>http://csgo.178.com/201903/347753705495.html</t>
+  </si>
+  <si>
+    <t>外媒爆料网易《绝地求生》侵权案件结果：双方和解</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/417711.html</t>
+  </si>
+  <si>
+    <t>[2019-03-26]</t>
+  </si>
+  <si>
+    <t>《绝地求生》手游拟限定游戏时间以适应印度禁令</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/417343.html</t>
+  </si>
+  <si>
+    <t>[2019-03-25]</t>
+  </si>
+  <si>
+    <t>腾讯宣布《绝地求生》手游成为全世界最热门手机游戏</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/417231.html</t>
+  </si>
+  <si>
+    <t>[2019-03-24]</t>
+  </si>
+  <si>
+    <t>PDL线下赛23日点燃战火 48队冲击PCLP最后席位</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/416949.html</t>
+  </si>
+  <si>
+    <t>[2019-03-22]</t>
+  </si>
+  <si>
+    <t>《绝地求生》玩家人数持续降温 蓝洞可否力挽狂澜？</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/416217.html</t>
+  </si>
+  <si>
+    <t>[2019-03-19]</t>
+  </si>
+  <si>
+    <t>10名印度青少年被警方拘捕 原因竟是玩《绝地求生》！</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/415635.html</t>
+  </si>
+  <si>
+    <t>[2019-03-15]</t>
+  </si>
+  <si>
+    <t>印度政府发布绝地求生手游禁令 非法吃鸡将面临监禁</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/415351.html</t>
+  </si>
+  <si>
+    <t>[2019-03-14]</t>
+  </si>
+  <si>
+    <t>《绝地求生》创意总监不再专职游戏开发 正筹划新作</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/415299.html</t>
+  </si>
+  <si>
+    <t>绝地求生发展联赛春季赛将开启 JJ Jay挑战职电竞战队</t>
+  </si>
+  <si>
+    <t>http://www.ali213.net/news/html/2019-3/413739.html</t>
+  </si>
+  <si>
+    <t>[2019-03-06]</t>
+  </si>
+  <si>
+    <t>Faker出道经历被曝光 LPL女装Flag再现03/29</t>
+  </si>
+  <si>
+    <t>https://lol.dianjinghu.com/news/72669.html?docid=10853917297328644882</t>
+  </si>
+  <si>
+    <t>03/29</t>
+  </si>
+  <si>
+    <t>LPL赛前海报：WE不问来者只要取胜，LGD邀请SS一起玩！03/29</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=12343122140760161699</t>
+  </si>
+  <si>
+    <t>场上场下反差大！Clid表示Faker在生活中真的很幼稚03/29</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=15326664833645485952</t>
+  </si>
+  <si>
+    <t>WE迎最关键一战！LGD能否连胜？03/29</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=10788422182962591944</t>
+  </si>
+  <si>
+    <t>3月29日LPL首发：WE迎来晋级季后赛关键战03/29</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=11255140304832173298</t>
+  </si>
+  <si>
+    <t>FPX提前晋级半决赛 首次锁定亚洲对抗赛03/28</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=4813711277831768236</t>
+  </si>
+  <si>
+    <t>03/28</t>
+  </si>
+  <si>
+    <t>WE迎来晋级季后赛关键战！03/28</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=239368066997973939</t>
+  </si>
+  <si>
+    <t>春季赛第一阵容怎么排？谁是你心目中的最佳03/28</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=17580358038614315403</t>
+  </si>
+  <si>
+    <t>LPL季后赛晋级趋势：五队上岸，四队共争三席03/28</t>
+  </si>
+  <si>
+    <t>https://l.zhangyoubao.com/news/108659?docid=17957135356846687720</t>
+  </si>
+  <si>
+    <t>五支战队锁定季后赛 剩余四队形势分析03/28</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=3046225192126843315</t>
+  </si>
+  <si>
+    <t>Scout意外连麦女主播 Heart表情亮了03/28</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/news/detail.shtml?docid=12550063173107723464</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +543,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -86,11 +577,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -371,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -399,25 +891,135 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -428,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80163968-C97D-4127-818E-70B70E204E00}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -451,35 +1053,124 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
+      <c r="A4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>9</v>
+      <c r="A6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -490,13 +1181,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBC6688-5BEE-4FA4-ABD2-57DEA58DD222}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -513,30 +1207,113 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
+      <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -547,12 +1324,205 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DC7FBB-3B61-47FA-866F-470F2F6C8874}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,12 +1530,128 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DE5AA2-0F0E-4F49-8B8C-C20BD68F548E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -573,12 +1659,106 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18E46AA-CE72-4821-85BF-A9D7F7B19016}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
